--- a/static/ceshi.xlsx
+++ b/static/ceshi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="163">
   <si>
     <t>品牌</t>
   </si>
@@ -69,6 +69,9 @@
     <t>反馈情况</t>
   </si>
   <si>
+    <t>富特</t>
+  </si>
+  <si>
     <t>周五</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>富特</t>
   </si>
   <si>
     <t>周六</t>
@@ -518,10 +518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -573,7 +573,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -581,7 +581,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,8 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,32 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,6 +628,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,22 +666,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,9 +693,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,55 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,67 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +770,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +824,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,6 +943,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -969,47 +1010,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1022,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,16 +1034,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,115 +1052,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -35288,16 +35288,15 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="1" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="18" spans="1:15">
+    <row r="1" customFormat="1" ht="18.75" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35345,51 +35344,53 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="20.25" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
         <v>43693</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>0.0402777777777778</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" customFormat="1" ht="18" spans="1:15">
+    <row r="3" customFormat="1" ht="18.75" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>43897</v>
@@ -35407,7 +35408,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
@@ -35430,9 +35431,9 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" customFormat="1" ht="18" spans="1:15">
+    <row r="4" customFormat="1" ht="18.75" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>43897</v>
@@ -35447,7 +35448,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>35</v>
@@ -35473,9 +35474,9 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" customFormat="1" ht="18" spans="1:15">
+    <row r="5" customFormat="1" ht="18.75" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>43897</v>
@@ -35493,7 +35494,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -35516,9 +35517,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="18" spans="1:15">
+    <row r="6" customFormat="1" ht="18.75" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>43897</v>
@@ -35551,7 +35552,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>33</v>
@@ -35559,7 +35560,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" customFormat="1" ht="18" spans="1:15">
+    <row r="7" customFormat="1" ht="18.75" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -35576,7 +35577,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>47</v>
@@ -35602,7 +35603,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="1" ht="18" spans="1:15">
+    <row r="8" customFormat="1" ht="18.75" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -35625,7 +35626,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
@@ -35645,7 +35646,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="1" ht="18" spans="1:15">
+    <row r="9" customFormat="1" ht="18.75" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -35665,7 +35666,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>28</v>
@@ -35688,7 +35689,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="18" spans="1:15">
+    <row r="10" customFormat="1" ht="18.75" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -35731,7 +35732,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="1" ht="18" spans="1:15">
+    <row r="11" customFormat="1" ht="18.75" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -35751,7 +35752,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
@@ -35774,7 +35775,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="1" ht="18" spans="1:15">
+    <row r="12" customFormat="1" ht="18.75" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -35794,7 +35795,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
@@ -35809,7 +35810,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>33</v>
@@ -35817,9 +35818,9 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="1" ht="18" spans="1:15">
+    <row r="13" customFormat="1" ht="18.75" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>43898</v>
@@ -35831,7 +35832,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>27</v>
@@ -35852,7 +35853,7 @@
         <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>41</v>
@@ -35860,9 +35861,9 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" customFormat="1" ht="18" spans="1:15">
+    <row r="14" customFormat="1" ht="18.75" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>43898</v>
@@ -35874,7 +35875,7 @@
         <v>0.00625</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -35903,9 +35904,9 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" customFormat="1" ht="18" spans="1:15">
+    <row r="15" customFormat="1" ht="18.75" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>43898</v>
@@ -35920,7 +35921,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>67</v>
@@ -35946,9 +35947,9 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" customFormat="1" ht="18" spans="1:15">
+    <row r="16" customFormat="1" ht="18.75" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>43898</v>
@@ -35979,7 +35980,7 @@
         <v>71</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>41</v>
@@ -36003,7 +36004,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
@@ -36755,7 +36756,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B95" s="8">
         <v>1</v>
@@ -36784,9 +36785,9 @@
       <selection activeCell="E22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="18" spans="1:15">
+    <row r="1" ht="18.75" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36841,46 +36842,46 @@
         <v>43693</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>0.0402777777777778</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" ht="18" spans="1:15">
+    <row r="3" ht="18.75" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>43897</v>
@@ -36898,7 +36899,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
@@ -36921,9 +36922,9 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" ht="18" spans="1:15">
+    <row r="4" ht="18.75" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>43897</v>
@@ -36938,7 +36939,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>35</v>
@@ -36964,9 +36965,9 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" ht="18" spans="1:15">
+    <row r="5" ht="18.75" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>43897</v>
@@ -36984,7 +36985,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -37007,9 +37008,9 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" ht="18" spans="1:15">
+    <row r="6" ht="18.75" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>43897</v>
@@ -37042,7 +37043,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>33</v>
@@ -37050,7 +37051,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" ht="18" spans="1:15">
+    <row r="7" ht="18.75" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -37067,7 +37068,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>47</v>
@@ -37093,7 +37094,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" ht="18" spans="1:15">
+    <row r="8" ht="18.75" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -37116,7 +37117,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
@@ -37136,7 +37137,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" ht="18" spans="1:15">
+    <row r="9" ht="18.75" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -37156,7 +37157,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>28</v>
@@ -37179,7 +37180,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" ht="18" spans="1:15">
+    <row r="10" ht="18.75" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -37222,7 +37223,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" ht="18" spans="1:15">
+    <row r="11" ht="18.75" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -37242,7 +37243,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
@@ -37265,7 +37266,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" ht="18" spans="1:15">
+    <row r="12" ht="18.75" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -37285,7 +37286,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
@@ -37300,7 +37301,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>33</v>
@@ -37308,9 +37309,9 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" ht="18" spans="1:15">
+    <row r="13" ht="18.75" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>43898</v>
@@ -37322,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>27</v>
@@ -37343,7 +37344,7 @@
         <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>41</v>
@@ -37351,9 +37352,9 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" ht="18" spans="1:15">
+    <row r="14" ht="18.75" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>43898</v>
@@ -37365,7 +37366,7 @@
         <v>0.00625</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -37394,9 +37395,9 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" ht="18" spans="1:15">
+    <row r="15" ht="18.75" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>43898</v>
@@ -37411,7 +37412,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>67</v>
@@ -37437,9 +37438,9 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" ht="18" spans="1:15">
+    <row r="16" ht="18.75" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>43898</v>
@@ -37470,7 +37471,7 @@
         <v>71</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>41</v>
